--- a/currentbuild/StructureDefinition-no-basis-Procedure.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Procedure</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Procedure</t>
   </si>
   <si>
     <t>Version</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -770,9 +770,149 @@
     <t>A reference to a code defined by Norsk Klinisk Prosedyrekodeverk (NCMP, NCSP og NCRP)</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="urn:oid:2.16.578.1.12.4.1.1.7275"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>Procedure.code.coding:NKPK.id</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding.id</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:NKPK.extension</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:NKPK.system</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7275</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:NKPK.version</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:NKPK.code</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:NKPK.display</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:NKPK.userSelected</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>Procedure.code.coding:SNOMED-CT</t>
@@ -787,9 +927,28 @@
     <t>A reference to a code defined SNOMED CT.</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>Procedure.code.coding:SNOMED-CT.id</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:SNOMED-CT.extension</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:SNOMED-CT.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:SNOMED-CT.version</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:SNOMED-CT.code</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:SNOMED-CT.display</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:SNOMED-CT.userSelected</t>
   </si>
   <si>
     <t>Procedure.code.coding:ICPC-2</t>
@@ -804,9 +963,28 @@
     <t>A reference to a code defined by ICPC-2</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://hl7.org/fhir/sid/icpc-2"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>Procedure.code.coding:ICPC-2.id</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:ICPC-2.extension</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:ICPC-2.system</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/sid/icpc-2</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:ICPC-2.version</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:ICPC-2.code</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:ICPC-2.display</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:ICPC-2.userSelected</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
@@ -1149,7 +1327,10 @@
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1663,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1672,7 +1853,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.2890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.2890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4273,7 +4454,7 @@
         <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>74</v>
@@ -4341,14 +4522,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4366,23 +4545,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4391,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>74</v>
@@ -4430,52 +4605,50 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4484,23 +4657,21 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4509,7 +4680,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -4536,19 +4707,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4560,27 +4731,27 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4603,26 +4774,26 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>74</v>
@@ -4664,7 +4835,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4682,29 +4853,29 @@
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4719,15 +4890,17 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4779,7 +4952,7 @@
         <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>84</v>
@@ -4791,24 +4964,24 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4831,18 +5004,18 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4890,7 +5063,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4905,24 +5078,24 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4945,18 +5118,18 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -5004,7 +5177,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5019,24 +5192,24 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5059,16 +5232,20 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5116,7 +5293,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5134,23 +5311,25 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5171,16 +5350,20 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5228,13 +5411,13 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
@@ -5246,21 +5429,21 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5271,7 +5454,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5280,16 +5463,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5340,25 +5523,25 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5369,21 +5552,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5395,15 +5578,17 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5440,31 +5625,31 @@
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5481,21 +5666,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5504,27 +5689,29 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>74</v>
@@ -5566,75 +5753,73 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5682,39 +5867,39 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5737,17 +5922,17 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5772,13 +5957,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5796,7 +5981,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5811,24 +5996,24 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5836,7 +6021,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>84</v>
@@ -5851,17 +6036,17 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5910,10 +6095,10 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>84</v>
@@ -5925,24 +6110,24 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5962,20 +6147,22 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -6024,7 +6211,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6042,23 +6229,25 @@
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6079,17 +6268,19 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6138,13 +6329,13 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
@@ -6156,21 +6347,21 @@
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6181,7 +6372,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6190,20 +6381,18 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>218</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6228,13 +6417,13 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6252,28 +6441,28 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6281,14 +6470,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6304,19 +6493,19 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>223</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>356</v>
+        <v>133</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6354,19 +6543,19 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6378,16 +6567,16 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6395,10 +6584,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6409,7 +6598,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6421,24 +6610,26 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>248</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>74</v>
@@ -6456,11 +6647,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6478,13 +6671,13 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
@@ -6496,21 +6689,21 @@
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>364</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6533,16 +6726,16 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6568,13 +6761,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>369</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6592,7 +6785,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6610,21 +6803,21 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6635,7 +6828,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6644,21 +6837,21 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6706,13 +6899,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6724,21 +6917,21 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6749,7 +6942,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6758,21 +6951,21 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6796,13 +6989,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6820,13 +7013,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>277</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
@@ -6838,21 +7031,21 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6863,7 +7056,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6872,20 +7065,22 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
+        <v>283</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>389</v>
+        <v>286</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6934,13 +7129,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
@@ -6952,21 +7147,21 @@
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6977,7 +7172,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6986,19 +7181,23 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7022,13 +7221,13 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>394</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7046,13 +7245,13 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
@@ -7064,32 +7263,32 @@
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7098,16 +7297,16 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7158,13 +7357,13 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
@@ -7173,24 +7372,24 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>402</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7201,7 +7400,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7210,18 +7409,20 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7270,13 +7471,13 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
@@ -7285,24 +7486,24 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7322,18 +7523,20 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7382,7 +7585,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7394,38 +7597,38 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7434,20 +7637,18 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7496,28 +7697,28 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7525,46 +7726,42 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7612,28 +7809,28 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>127</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -7641,10 +7838,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7655,7 +7852,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7664,16 +7861,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7700,13 +7897,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7724,13 +7921,13 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
@@ -7739,10 +7936,10 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7753,10 +7950,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7764,7 +7961,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -7779,13 +7976,13 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7836,10 +8033,10 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>84</v>
@@ -7848,13 +8045,13 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>221</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7865,14 +8062,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7891,20 +8088,18 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
+        <v>223</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7952,7 +8147,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>421</v>
+        <v>227</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7964,13 +8159,13 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>221</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7981,14 +8176,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8001,24 +8196,26 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8042,13 +8239,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>431</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8066,7 +8263,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8078,18 +8275,2404 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>74</v>
       </c>
     </row>
